--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.019323</v>
+        <v>1.209748333333333</v>
       </c>
       <c r="H2">
-        <v>3.057969</v>
+        <v>3.629245</v>
       </c>
       <c r="I2">
-        <v>0.03492130618565951</v>
+        <v>0.05758082582909403</v>
       </c>
       <c r="J2">
-        <v>0.03492130618565951</v>
+        <v>0.05758082582909403</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,10 +555,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2370463333333333</v>
+        <v>0.2466546666666667</v>
       </c>
       <c r="N2">
-        <v>0.711139</v>
+        <v>0.7399640000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2416267796323334</v>
+        <v>0.2983900719088889</v>
       </c>
       <c r="R2">
-        <v>2.174641016691</v>
+        <v>2.68551064718</v>
       </c>
       <c r="S2">
-        <v>0.03492130618565951</v>
+        <v>0.05758082582909403</v>
       </c>
       <c r="T2">
-        <v>0.03492130618565951</v>
+        <v>0.05758082582909403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>5.59936</v>
       </c>
       <c r="I3">
-        <v>0.06394340982650067</v>
+        <v>0.08883824952969446</v>
       </c>
       <c r="J3">
-        <v>0.06394340982650067</v>
+        <v>0.08883824952969446</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,10 +617,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2370463333333333</v>
+        <v>0.2466546666666667</v>
       </c>
       <c r="N3">
-        <v>0.711139</v>
+        <v>0.7399640000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4424359190044445</v>
+        <v>0.4603694247822223</v>
       </c>
       <c r="R3">
-        <v>3.98192327104</v>
+        <v>4.14332482304</v>
       </c>
       <c r="S3">
-        <v>0.06394340982650067</v>
+        <v>0.08883824952969446</v>
       </c>
       <c r="T3">
-        <v>0.06394340982650067</v>
+        <v>0.08883824952969446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.548255666666667</v>
+        <v>2.562851</v>
       </c>
       <c r="H4">
-        <v>4.644767</v>
+        <v>7.688553000000001</v>
       </c>
       <c r="I4">
-        <v>0.05304217621828317</v>
+        <v>0.1219849393388318</v>
       </c>
       <c r="J4">
-        <v>0.05304217621828317</v>
+        <v>0.1219849393388318</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,10 +679,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2370463333333333</v>
+        <v>0.2466546666666667</v>
       </c>
       <c r="N4">
-        <v>0.711139</v>
+        <v>0.7399640000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3670083288458889</v>
+        <v>0.6321391591213334</v>
       </c>
       <c r="R4">
-        <v>3.303074959613</v>
+        <v>5.689252432092001</v>
       </c>
       <c r="S4">
-        <v>0.05304217621828317</v>
+        <v>0.1219849393388318</v>
       </c>
       <c r="T4">
-        <v>0.05304217621828317</v>
+        <v>0.1219849393388318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.755111</v>
+        <v>15.37051633333333</v>
       </c>
       <c r="H5">
-        <v>74.265333</v>
+        <v>46.111549</v>
       </c>
       <c r="I5">
-        <v>0.8480931077695566</v>
+        <v>0.7315959853023798</v>
       </c>
       <c r="J5">
-        <v>0.8480931077695566</v>
+        <v>0.7315959853023797</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,10 +741,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2370463333333333</v>
+        <v>0.2466546666666667</v>
       </c>
       <c r="N5">
-        <v>0.711139</v>
+        <v>0.7399640000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.868108293809667</v>
+        <v>3.791209582692889</v>
       </c>
       <c r="R5">
-        <v>52.812974644287</v>
+        <v>34.120886244236</v>
       </c>
       <c r="S5">
-        <v>0.8480931077695566</v>
+        <v>0.7315959853023798</v>
       </c>
       <c r="T5">
-        <v>0.8480931077695566</v>
+        <v>0.7315959853023797</v>
       </c>
     </row>
   </sheetData>
